--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_18.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_18.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_9</t>
+          <t>model_1_18_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722649569998535</v>
+        <v>0.8475988000679374</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7843299480088479</v>
+        <v>0.6337276313404352</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7427105748623515</v>
+        <v>0.7639122318648586</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9459863097349731</v>
+        <v>0.7729673731099909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1154478569259131</v>
+        <v>0.3612202016677317</v>
       </c>
       <c r="G2" t="n">
-        <v>1.44218663073411</v>
+        <v>2.44926501575569</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9203093552193357</v>
+        <v>0.8444722574640747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1213499228269661</v>
+        <v>0.5463962492752991</v>
       </c>
       <c r="J2" t="n">
-        <v>1.276055337684599</v>
+        <v>1.288238373684202</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3397761865197634</v>
+        <v>0.6010159745528664</v>
       </c>
       <c r="L2" t="n">
-        <v>2.775042752009377</v>
+        <v>0.7924749617946382</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3451273218058727</v>
+        <v>0.6104813753565161</v>
       </c>
       <c r="N2" t="n">
-        <v>134.3178726122875</v>
+        <v>36.03653505938127</v>
       </c>
       <c r="O2" t="n">
-        <v>275.6530451555039</v>
+        <v>73.00111864760709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_8</t>
+          <t>model_1_18_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9719633389320345</v>
+        <v>0.8478566929521389</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7834331868791823</v>
+        <v>0.6312426587953532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7437417770034387</v>
+        <v>0.7541913533696152</v>
       </c>
       <c r="E3" t="n">
-        <v>0.946941777571543</v>
+        <v>0.7593967416483822</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1167033501854567</v>
+        <v>0.3606089458529383</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44818327653739</v>
+        <v>2.4658820386069</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9166208049532025</v>
+        <v>0.8792432761926401</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1192033198516372</v>
+        <v>0.5790564982998266</v>
       </c>
       <c r="J3" t="n">
-        <v>1.286500308121068</v>
+        <v>1.243074788446815</v>
       </c>
       <c r="K3" t="n">
-        <v>0.341618720484485</v>
+        <v>0.600507240466706</v>
       </c>
       <c r="L3" t="n">
-        <v>2.794346308349795</v>
+        <v>0.7928261350837637</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3469988738386804</v>
+        <v>0.6099646292170462</v>
       </c>
       <c r="N3" t="n">
-        <v>134.2962400648571</v>
+        <v>36.03992232055244</v>
       </c>
       <c r="O3" t="n">
-        <v>275.6314126080734</v>
+        <v>73.00450590877826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_7</t>
+          <t>model_1_18_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9716437534728235</v>
+        <v>0.8478989539174531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7824382834811598</v>
+        <v>0.6308511319772943</v>
       </c>
       <c r="D4" t="n">
-        <v>0.744876138332659</v>
+        <v>0.7528055134860427</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9477697094335419</v>
+        <v>0.7571469685015979</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1180336331913422</v>
+        <v>0.3605087792241963</v>
       </c>
       <c r="G4" t="n">
-        <v>1.454836200141075</v>
+        <v>2.468500180242076</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9125632602526308</v>
+        <v>0.8842003451005653</v>
       </c>
       <c r="I4" t="n">
-        <v>0.117343245728455</v>
+        <v>0.5844709958809113</v>
       </c>
       <c r="J4" t="n">
-        <v>1.296972728603584</v>
+        <v>1.226892375286958</v>
       </c>
       <c r="K4" t="n">
-        <v>0.34356023226116</v>
+        <v>0.600423832991493</v>
       </c>
       <c r="L4" t="n">
-        <v>2.814799777739296</v>
+        <v>0.7928836819301488</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3489709624850383</v>
+        <v>0.6098799081574755</v>
       </c>
       <c r="N4" t="n">
-        <v>134.2735713361674</v>
+        <v>36.04047793928654</v>
       </c>
       <c r="O4" t="n">
-        <v>275.6087438793838</v>
+        <v>73.00506152751235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_6</t>
+          <t>model_1_18_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9714248110146213</v>
+        <v>0.8479089850819876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7813171175515424</v>
+        <v>0.6302776340556058</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7461388944952398</v>
+        <v>0.7507251612827819</v>
       </c>
       <c r="E5" t="n">
-        <v>0.949503794950882</v>
+        <v>0.7540239847142964</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1189449870186789</v>
+        <v>0.3604850034318945</v>
       </c>
       <c r="G5" t="n">
-        <v>1.462333441874921</v>
+        <v>2.472335163485122</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9080464546778884</v>
+        <v>0.8916416443058777</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1134473603950874</v>
+        <v>0.5919870373032562</v>
       </c>
       <c r="J5" t="n">
-        <v>1.30582563782042</v>
+        <v>1.211327834022099</v>
       </c>
       <c r="K5" t="n">
-        <v>0.344884019662667</v>
+        <v>0.6004040334906942</v>
       </c>
       <c r="L5" t="n">
-        <v>2.828812095064237</v>
+        <v>0.7928973413882385</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3503155982148172</v>
+        <v>0.6098597968343312</v>
       </c>
       <c r="N5" t="n">
-        <v>134.2581883734442</v>
+        <v>36.0406098449583</v>
       </c>
       <c r="O5" t="n">
-        <v>275.5933609166606</v>
+        <v>73.00519343318413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_5</t>
+          <t>model_1_18_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9711233974250515</v>
+        <v>0.847850795598514</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7802879304864984</v>
+        <v>0.6285843660717516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7472907013938554</v>
+        <v>0.7446100196916265</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9506405420494204</v>
+        <v>0.7448153480128133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1201996291320513</v>
+        <v>0.3606229237170673</v>
       </c>
       <c r="G6" t="n">
-        <v>1.469215620517841</v>
+        <v>2.483658054289937</v>
       </c>
       <c r="H6" t="n">
-        <v>0.903926508187141</v>
+        <v>0.9135151512011586</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1108934861457151</v>
+        <v>0.614149334518215</v>
       </c>
       <c r="J6" t="n">
-        <v>1.31619980947821</v>
+        <v>1.168767083713262</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3466981816105347</v>
+        <v>0.6005188787349381</v>
       </c>
       <c r="L6" t="n">
-        <v>2.848102564796704</v>
+        <v>0.792818104644785</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3521583313998671</v>
+        <v>0.609976450776369</v>
       </c>
       <c r="N6" t="n">
-        <v>134.2372026846193</v>
+        <v>36.0398447983867</v>
       </c>
       <c r="O6" t="n">
-        <v>275.5723752278357</v>
+        <v>73.00442838661253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_4</t>
+          <t>model_1_18_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9707474205631436</v>
+        <v>0.8474889338945683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7791959340358923</v>
+        <v>0.6247182782285645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7484354583045091</v>
+        <v>0.7357736326734197</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9512391874449141</v>
+        <v>0.728312784909279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1217646428571345</v>
+        <v>0.3614806056627039</v>
       </c>
       <c r="G7" t="n">
-        <v>1.476517805811225</v>
+        <v>2.509510601499026</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8998317790945528</v>
+        <v>0.9451223952021263</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1095485387409475</v>
+        <v>0.6538658224376742</v>
       </c>
       <c r="J7" t="n">
-        <v>1.328430014356178</v>
+        <v>1.068681660756012</v>
       </c>
       <c r="K7" t="n">
-        <v>0.348947908515203</v>
+        <v>0.6012325720240911</v>
       </c>
       <c r="L7" t="n">
-        <v>2.872165083958812</v>
+        <v>0.7923253567926036</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3544434892543821</v>
+        <v>0.6107013840213946</v>
       </c>
       <c r="N7" t="n">
-        <v>134.211330508755</v>
+        <v>36.03509377688317</v>
       </c>
       <c r="O7" t="n">
-        <v>275.5465030519714</v>
+        <v>72.99967736510899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_3</t>
+          <t>model_1_18_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9704246884672251</v>
+        <v>0.8474119119600436</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7779576953557668</v>
+        <v>0.6242956906912145</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7497437872846462</v>
+        <v>0.7350161308018026</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9524725504494725</v>
+        <v>0.7270084515790933</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1231080238223199</v>
+        <v>0.3616631624846597</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48479791356679</v>
+        <v>2.512336446307122</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8951519621938754</v>
+        <v>0.9478319354744185</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1067776022489871</v>
+        <v>0.657004943229169</v>
       </c>
       <c r="J8" t="n">
-        <v>1.340094428197993</v>
+        <v>1.065896553528809</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3508675303049855</v>
+        <v>0.6013843716664573</v>
       </c>
       <c r="L8" t="n">
-        <v>2.892819938097595</v>
+        <v>0.7922204758604849</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3563933431684359</v>
+        <v>0.6108555743563842</v>
       </c>
       <c r="N8" t="n">
-        <v>134.1893861331622</v>
+        <v>36.03408398141027</v>
       </c>
       <c r="O8" t="n">
-        <v>275.5245586763786</v>
+        <v>72.99866756963608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_2</t>
+          <t>model_1_18_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9699256743484219</v>
+        <v>0.8468193761017142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7770113722702284</v>
+        <v>0.6212125590380065</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7507632476716063</v>
+        <v>0.7306794315918927</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9523261263697907</v>
+        <v>0.7194360067084007</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1251851834139348</v>
+        <v>0.3630675866121369</v>
       </c>
       <c r="G9" t="n">
-        <v>1.491125980397201</v>
+        <v>2.53295336186864</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8915054115014285</v>
+        <v>0.9633440570919981</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1071065660854185</v>
+        <v>0.6752294404385284</v>
       </c>
       <c r="J9" t="n">
-        <v>1.353565282046831</v>
+        <v>1.048959289804567</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3538151825656084</v>
+        <v>0.6025508996027945</v>
       </c>
       <c r="L9" t="n">
-        <v>2.924756841700997</v>
+        <v>0.7914136185214832</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3593874180055924</v>
+        <v>0.6120404739416184</v>
       </c>
       <c r="N9" t="n">
-        <v>134.1559223413169</v>
+        <v>36.02633254606832</v>
       </c>
       <c r="O9" t="n">
-        <v>275.4910948845333</v>
+        <v>72.99091613429414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_1</t>
+          <t>model_1_18_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9693940375057276</v>
+        <v>0.8466370532484077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7759048166533113</v>
+        <v>0.6202755645457015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7518141333917741</v>
+        <v>0.7296507412330471</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9520097048669885</v>
+        <v>0.717545189048939</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1273981359646695</v>
+        <v>0.3634997268962648</v>
       </c>
       <c r="G10" t="n">
-        <v>1.498525522902746</v>
+        <v>2.539219048353146</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8877464542142434</v>
+        <v>0.9670236228586953</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1078174548389444</v>
+        <v>0.679780044866384</v>
       </c>
       <c r="J10" t="n">
-        <v>1.366530874571651</v>
+        <v>1.041935322692185</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3569287547461952</v>
+        <v>0.6029093853111467</v>
       </c>
       <c r="L10" t="n">
-        <v>2.958781599633433</v>
+        <v>0.7911653491042147</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3625500258355931</v>
+        <v>0.612404605441523</v>
       </c>
       <c r="N10" t="n">
-        <v>134.1208763346233</v>
+        <v>36.02395346665172</v>
       </c>
       <c r="O10" t="n">
-        <v>275.4560488778397</v>
+        <v>72.98853705487754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_18_0</t>
+          <t>model_1_18_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9687217049831113</v>
+        <v>0.8464496117726826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7748898541372579</v>
+        <v>0.6193786267316408</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7525955917828944</v>
+        <v>0.7286494484048717</v>
       </c>
       <c r="E11" t="n">
-        <v>0.950540920048819</v>
+        <v>0.7156511827667011</v>
       </c>
       <c r="F11" t="n">
-        <v>0.130196738039209</v>
+        <v>0.3639439993015507</v>
       </c>
       <c r="G11" t="n">
-        <v>1.505312581921068</v>
+        <v>2.54521687564579</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8849512228607672</v>
+        <v>0.9706051892467843</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1111173020343452</v>
+        <v>0.684338323308099</v>
       </c>
       <c r="J11" t="n">
-        <v>1.380710699520935</v>
+        <v>1.034408051576635</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3608278509749615</v>
+        <v>0.6032777132478463</v>
       </c>
       <c r="L11" t="n">
-        <v>3.001810881080878</v>
+        <v>0.7909101096479083</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3665105289322961</v>
+        <v>0.6127787341750328</v>
       </c>
       <c r="N11" t="n">
-        <v>134.0774172059676</v>
+        <v>36.02151054250778</v>
       </c>
       <c r="O11" t="n">
-        <v>275.412589749184</v>
+        <v>72.98609413073359</v>
       </c>
     </row>
   </sheetData>
